--- a/500all/speech_level/speeches_CHRG-114hhrg99744.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99744.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. The Subcommittee on Emergency Preparedness, Response, and Communications will come to order. Welcome to the other hearing going on on Capitol Hill this morning. The subcommittee is meeting today to examine Federal response capabilities for major disasters. I will now recognize myself for an opening statement.    August 29 marked the 10th anniversary of Hurricane Katrina, the response to which was a failure at all levels of government. The storm took more than 1,800 lives, impacted millions of Gulf Coast residents, and cost an estimated $108 billion--the most costly disaster in U.S. history.    Ten years later, the Gulf Coast still bears the scars of this disaster. Since Katrina, much has changed in how we manage and respond to disasters. There have been major legislative reforms and improvements made to the emergency preparedness and response enterprise.    The Post-Katrina Emergency Management Reform Act, or PKEMRA, gave FEMA more authority to lean forward and be more proactive as threats emerged.    We have also seen an improvement in the way we collectively look at preparedness, through the development of the National Preparedness System and its associated National Preparedness Goal and Planning Frameworks, including the National response framework, assessment of core capabilities, and planning and exercising to identify and address gaps.    Finally, the way information moves--especially through the use of social media--has changed how we communicate and interact with each other and how we get news and critical information.    In emergencies, we use social media to relay information to first responders, communicate with loved ones, and request assistance. Response organizations, including FEMA and emergency managers Mr. Koon represents, use social media to quickly share public safety information and maintain direct communication with disaster survivors during and after an incident.    As a whole, these changes have resulted in more coordinated and effective responses to more than 1,200 declared disasters in the 10 years since Katrina. Three years ago next week, Hurricane Sandy made landfall on the Eastern Seaboard, including areas represented by several of my colleagues on this subcommittee.    The response to Sandy is in contrast to the failures of Hurricane Katrina. FEMA pre-deployed more than 900 personnel and established incident support bases and Federal staging areas to preposition commodities, generators and communications vehicles. These actions contributed to a more effect response.    Despite these improvements, the response to Hurricane Sandy wasn't without its challenges. For example, issues related to fuel distribution and power restoration impacted responses and recovery efforts.    At the request of this committee, the Government Accountability Office has been evaluating FEMA's response capabilities, particularly in light of authorities provided in PKEMRA. Some of this work is ongoing, but the GAO has issued reports on FEMA's workforce, potentially improper disaster assistance, coordination of emergency support function responsibilities of Federal agencies, and logistics to name a few.    I look forward to hearing from Mr. Currie about GAO's reviews and his suggestions for ways to further improve our Federal response posture.    This Nation faces innumerable threats, including natural disasters, terrorist attacks, emerging infectious diseases, and a porous border. These complex threats pose unique challenges. Administrator Fugate, I look forward to hearing how you are working to continue to improve FEMA so it is a nimble organization, prepared to respond along with Federal, State, local, private, and non-profit partners to the evolving challenges we face.    I also want to commend you for FEMA's recent work responding to the devastating floods in the Carolinas. Our thoughts are with all those who have been impacted.    With that, I welcome our distinguished witnesses here today. I look forward to your testimony, and our discussions on ways we can work together to continue to improve our response capabilities.    The Chair now recognizes the gentleman from Mississippi, Mr. Thompson, for any opening statement he may have.</t>
   </si>
   <si>
     <t>400402</t>
   </si>
   <si>
-    <t>Bennie G. Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you very much. Good morning, Madam Chairman. I would like to thank you for holding this hearing to assess Federal preparedness, response, mitigation, and recovery capabilities that have evolved since Hurricane Katrina.    I am pleased that all of the witnesses are able to join us today, particularly Administrator Fugate. Good seeing you again. Yesterday, Secretary Johnson, however, appeared before the full committee for the first time this Congress, and today marks Administrator Fugate's also first appearance.    Although I am troubled that the committee has not had the opportunity to engage agency principles until almost halfway through the Congress, I am pleased that we are beginning to do so and look forward to additional hearings next year.    I would also like to welcome the assistant Democratic leader, James Clyburn, from South Carolina, to the Committee on Homeland Security and ask unanimous consent that he be permitted to participate in today's hearing.</t>
   </si>
   <si>
@@ -79,27 +73,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Fugate</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fugate. Well, thank you, Chairman and Members. Congressman Thompson, we go way back when I first started in     As we look back at Katrina, there are lot of questions: Well, why did it go wrong, who was at fault? It is easy to point to an individual or to a system and say this failed. I think you have to get to why we failed. It is an inherent danger we face in dealing with disaster preparedness.    I am seeing it play out even today. That is, we prepare for what we are capable of, and we hope it is never any worse. It is interesting that even after Sandy, where we were barely able to mobilize the resources fast enough to get to the disaster, we are continuing to look at how we reduce our footprint, how do we reduce our overhead, how do we reduce our budget.    I caution people in going, look, this is not a retail delivery system. Disasters don't occur with a schedule, where they are planned or where you know they are going to happen.    There is a certain inherent risk to wanting precision at the expense of being fast. Much of what you are going to find where you find errors at FEMA is not because we are not trying to be good stewards of the taxpayers' dollars. It is that we understand that speed is critical in stabilizing a disaster.    It will not be precise, it is rarely going to be cost-effective as it would be on a day-to-day basis, and it is going to have errors. Now, that is not an excuse, that is just a reality. So we always balance with precision is great, but at what expense to getting to the survivors.    We have driven down our error rate on individual assistance tremendously, but it is still high for the program; more than we want to accept.    But I also know that the more we get that lower, it will mean--and we will see this in South Carolina, where people who don't have a driver's license, who may not know where their Social Security number is, and are applying for assistance and are eligible for that assistance--the system is going to not be able to be as responsive. We are going to have to basically then run that in a less efficient manner to try to help those people.    We run into issues where families don't have deeds because their property got passed down in the family and nobody went to the courthouse and then we can't prove ownership of the home. We use those tools to avoid fraud but, at the same time, we have to balance that against the world we are in. So our challenge is, is when we build for disaster we have to build for what can happen. If we make a decision we are going to build for what we can afford, then the expectation that it scales up doesn't work.    We know that our systems have to be robust on the large end and they have to be built around the people we serve, and the survivors. That environment has all kinds of inherent risk, where you try to put the controls in. But I also caution, the more accuracy, the more precision we try to get, the slower the response will become and the more likely that eligible people may not get the assistance they need in the time frames they need.    The other part of this is that we have learned is, we have to plan for the communities we live in, not what fits our plan. One of the great tragedies we saw that occurred during Katrina was, for many communities that were not basically well-represented, disadvantaged--low-income areas that probably many people didn't go to very often--weren't in the plan.    The reason was, we kept putting them in the annexes. We would look at people with disabilities and go, ``Well, you are hard to do so we are going to put an annex in our plan for you.''    ``You have pets. Well, that is going to be a problem at the shelter, so we are going to write annex on pets.'' ``You got frail elderly. Well, they are not easy to take care of so we are going to write an annex for them.''    When I asked the question, when I got to FEMA--is, well, why are putting all these hard-to-do in annexes? Why did we write a plan for easy instead of the communities we live in? The answer was, we had provided as guidance how to plan for, essentially, middle-class people with insurance, with a high school education or better, who were English-proficient, who had a car and generally had resources to take care of themselves.    We didn't address the most vulnerable part of our community. So the other part of our work is to plan for what can happen, not what we are capable of doing. But the other piece of that is, you plan for the communities you live in, you don't make the community fit your plan.    If you find yourself putting groups into an annex you fundamentally didn't get the whole picture of what your job is to do. That means you have to focus not on the easy-to-do, but on what the community requires.    So with that, Madam Chair, I look forward to questions.    We are an imperfect organization dealing with the inherent uncertainties of disaster response, but I can tell you on behalf of the FEMA staff nobody in this organization is shirking from their duties to do the best they can when the bell rings and the country needs us.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Administrator Fugate.    The Chair now recognizes Mr. Koon for 5 minutes.</t>
   </si>
   <si>
-    <t>Koon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Koon. Thank you, Chairman McSally, Ranking Member Thompson, and Members of the subcommittee for holding this important hearing today. As director of the Florida Division of Emergency Management and president of the National Emergency Management Association I am pleased to be here to discuss preparedness and response capabilities on a National level.    As you have heard Administrator Fugate say, emergency management is a whole community endeavor involving all levels of government, the private sector, voluntary organizations, and individual citizens. While emergency preparedness and response capabilities are critical on the Federal level, it is important to emphasize that they are only part of the capabilities Nation-wide.    Today, I will focus on leveraging the preparedness and response capabilities that we have in our States and localities, as well as addressing opportunities for continued improvement.    One of the greatest tools this Nation has is the Emergency Management Assistance Compact. Ratified by Congress in 1996, EMAC allows States to share resources amongst themselves during disasters. It has been an overwhelming success and its use continues to grow.    Most recently, 8 States sent 849 personnel to South Carolina to assist with their flood-fighting efforts. These deployments reduce the need for Federal resources and also benefits the home States.    To quote Billy Estep, the Nassau County Emergency Managing Director who deployed to South Carolina as part of the Northeast Florida Incident Management team, ``No matter how hard we try or how sophisticated our process we cannot recreate this type of learning in an exercise environment. I feel these opportunities are vital to our preparedness efforts both locally and state-wide.''    The capability that the States and locals build to respond to disasters both at home and through EMAC is often funded by the Emergency Management Performance Grant. EMPG is the only source of Federal funding directed to State and local governments for planning, training, exercises, and key professional expertise for all-hazards emergency preparedness.    EMPG is also used for public awareness and outreach campaigns. Each year, Emergency Management agencies conduct thousands of these engagements, reaching over 135 million residents last year alone. Recipients of this grant continue demonstrating a strong commitment for every dollar of Federal funds invested; at least that much is matched by the recipient.    In the absence of these funds, State and local governments would struggle to maintain the personnel or capabilities necessary to build and sustain an effective emergency management system.    Opportunities for improvement continue to exist. One such area is the National Flood Insurance program. Much attention has been paid to the NFIP over the last several years, and rightly so. Although reforms have been implemented, Americans remain under-insured against the threat posed by flooding, our most prevalent hazard, and the trend line for the number of flood policies Nation-wide continues to decline.    Too often, we watch our communities flood, only to hear from residents that they did not have the appropriate coverage. In the absence of insurance, they are reliant upon charitable organizations and Governmental aid that its not designed to make them whole. This delays the recovery of the community and threatens it very existence.    We must redouble our efforts to design a system that helps people evaluate and plan for their individual risk, while simultaneously reducing our collective risk.    Concurrent with improving our insurance coverage is the need for improved mitigation. To truly ensure that we are prepared, we must incentivize and facilitate more resilient communities. This point was made in the GAO's recent report that reviewed Federal efforts during Hurricane Sandy recovery. State and local officials reported that they were able to effectively leverage Federal programs to enhance disaster resilience, but also experienced challenges that could result in missed opportunities.    Challenges in linking recovery and mitigation projects, navigating multiple funding streams, and differing regulations among the programs impact the desire and ability of local communities and homeowners to take advantage of the opportunities afforded by these programs.    The report indicated that the current program works, but is constrained by its structure and implementation. Just as FEMA has designed its response program to be survivor-centric, it should also work to develop mitigation programs that are community-centric and administered in a way to make mitigation a clear and viable solution for the future.    We have made tremendous strides in the Nation's ability to deal with disasters, and are on track for continued improvement.    By investing in and leveraging the capabilities that exist with the individual at the State and local level, the private sector, and through our partnerships with organizations like the American Red Cross and the Salvation Army, we can most effectively determine the gaps that remain and should be filled by FEMA and its Federal partners.    We appreciate the continued support of this subcommittee to the emergency management community, as we work together in forming new policies and procedures aimed at making these disasters less impactful on our communities and constituents.    I thank you for the opportunity to testify today, and welcome any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Koon.    The Chair now recognizes Mr. Currie for 5 minutes.</t>
   </si>
   <si>
-    <t>Currie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Currie. Thank you, Chairman McSally, Ranking Member Thompson, other Members of the committee. We really appreciate the opportunity to be able to be here and testify.    Before I get into some of our specific work that we have done at GAO in this area, I would like to make a couple broader points.    FEMA is a much different organization than it was in 2005, and has made a lot of progress. I think the proactive preplanning and response to Sandy were evidence of that, and that the Federal Government at large was much better prepared for another catastrophic storm.    However, FEMA and other agencies operate in a different disaster and fiscal environment today. Extreme weather events are now the norm, and Federal disaster spending has exploded. It is not just traditional disaster relief funds from FEMA. Now, many other Federal agencies are contributing more to disaster relief either directly or indirectly.    Over the last decade, we at GAO have reported on progress and challenges, as you mentioned, in numerous areas, including efforts to implement over 300 provisions in the Post-Katrina Act.    Today, I would like to focus on some of our work in three of those areas. The first is National preparedness, the second is response and recovery, and the third is what I would categorize as FEMA management issues.    So let me talk a little bit about preparedness or, just more simply, how capable we are to respond to a disaster. Some of the biggest changes to FEMA in the Post-Katrina Act were in this area. For example, there has been much progress in establishing the coordinating structures, or the emergency support functions, across the Federal Government.    Also, FEMA and other agencies have conducted numerous exercises to test their readiness and identify capability gaps. Challenges still exist in this area, though. Specifically, FEMA doesn't necessarily control other Federal departments' preparedness efforts and resources.    For example, FEMA manages National-level exercises, but we found that other agencies don't always report back on actions they took to close the gaps that are identified during those exercises. So this impacts FEMA's ability to assess overall preparedness.    The second area I would like to talk about is response and recovery. Again, there has been much progress since the problems we remember after Katrina. But more work is still needed.    For example, we have recently evaluated FEMA disaster payments to individuals, which was discussed in the opening statements, after Sandy and compared them to Katrina. Due to better controls that FEMA implemented after Katrina, we found about 2.7 percent of payments at risk of being improper or potentially fraudulent--it doesn't mean that those were all fraudulent--compared to upwards of 22 percent after Katrina.    So this is unbelievably great progress, given the challenge that Mr. Fugate mentioned of getting money out quickly but making sure it is to the right people.    However, there are still improvements and some challenges that exist, such as ability to validate Social Security numbers with the Social Security Administration, and we made some recommendations to address these issues.    I would also like to emphasize our work on mitigation and resilience-building during recoveries. Given the increase in Federal costs and extreme weather, mitigation is one of the few solutions to buy down risk and decrease future cost. Mr. Koon talked about this in his opening. We have reported recently that resilience-building efforts were a much higher priority in Sandy recovery, and States were able to use a number of the Federal programs to mitigate against future disasters. However, more work is needed to break down the barriers that still exist in mitigation.    For example, States and locals had difficulty navigating multiple fragmented Federal programs, all with rules, regulations, and time frames. These weren't all FEMA programs; these are programs across the menu of Federal agencies.    We also found that the Nation lacks a comprehensive strategic approach to prioritizing our investments in resilience. We made recommendations to begin addressing these issues, but determining how to better invest our resilience dollars won't be easy.    The last area I wanted to discuss is FEMA management. For example, FEMA has taken a number of steps to better manage and control the rising administrative costs. Now, these are the costs of actually providing and managing disaster assistance.    Specifically, in response to our recommendation they developed specific goals, and a plan to better manage and try to reduce these costs.    Also, over the last decade we and others have found continued challenges in FEMA's ability to complete and integrate important strategic workforce planning efforts. We just reported, back in July, that the agency had not completed its plan to identify workforce gaps and lacked data on the cost and performance of certain workforce components. That has been a pretty consistent message across some of our reports over the last 5 to 7 years.    So this completes my prepared remarks. I look forward to the discussion, and any questions.</t>
   </si>
   <si>
@@ -163,9 +148,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Madam Chairwoman. I do not have specifically a question today, but I do have a comment that I would like to submit in the record for Administrator Fugate. I wanted to take a moment today and thank FEMA and the men and women working to respond in our specific times of need in North Carolina.    In fact, our Governor, Pat McCrory of North Carolina, has only the best to say about the work FEMA has done in North Carolina following Hurricane Joaquin, and we cannot thank you all enough.    Last, I would like to finish today by recognizing Michael Sprayberry on his appointment to the FEMA National Advisory Council. Mr. Sprayberry is the emergency management director for the North Carolina Department of Public Safety, and I feel the council made an excellent decision to bring him on board. Again, thank you, Administrator, for your work along with the rest of the Members.    I yield back, thank you.</t>
   </si>
   <si>
@@ -175,18 +157,12 @@
     <t>412644</t>
   </si>
   <si>
-    <t>Bonnie Watson Coleman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you, Madam Chairman. I would like very much to yield, at this moment, to Mr. Clyburn.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Mr. Clyburn.</t>
   </si>
   <si>
-    <t>Clyburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clyburn. Thank you very much. I thank the gentlelady for yielding. Madam Chair, Ranking Member, I don't know if many people realize this or not, but a little over 10 years ago, when we experienced Katrina and Rita, I was designated by the Speaker of the House to be the Congressional coordinator for our response to Katrina and Rita.    So I spent a lot of time in Louisiana and Mississippi, and I learned a lot, which was added to my own personal experiences with Hugo 26 years ago.    Now, what I have found--in keeping with the question raised by Ranking Member Thompson--is that there seems to be a natural default to State planning. I want to tell you what drives my thought on this.    When I accompanied Secretary Johnson down to South Carolina to listen to the State plans, here is what stuck with me from that hearing, this quote: ``We may run out of money before we reach all of the hard-hit areas, but we know where they are.''    Now, that bothered me tremendously and I still wake up every morning thinking about that statement. Because there is no one-stop facility. I think, Mr. Fugate, you mentioned that FEMA's limitations--you may not have mentioned this--if you get turned down by FEMA, then you got to go to the SBA. Then you got to get turned down by SBA for the loan in order to go back to FEMA in order to get the assistance. Now, this is not a good model for a lot of rural communities, a lot of people who are hit the hardest. Especially when they don't have transportation.    Then we set up these recovery centers, and they are not one-stop recovery centers. I could see it. If you go to this table to talk to FEMA, then walk across the gymnasium or auditorium to another table to talk to SBA. In this modern day, with all the computers and stuff we got, I don't see why this cannot be done, it cannot be a one-stop place for these people, because they give up on the process.    So I am asking, how are these agreements agreed upon; these agreements that you seem to default to, these State agreements, State-by-State agreements? Do we study them or do we evaluate them, or do we just accept what they send to us and then respond to it?</t>
   </si>
   <si>
@@ -212,9 +188,6 @@
   </si>
   <si>
     <t>412672</t>
-  </si>
-  <si>
-    <t>Daniel M. Donovan, Jr.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Madam Chair. I would like to thank my colleague from South Carolina. Because I was elected to office 13 months after superstorm Sandy and I had to create a one-stop shopping for the residents of Staten Island and South Brooklyn that were affected by that storm. So I agree with you, sir.    I was always a believer, gentlemen, that Government should have less interference in people's lives. But we are to do certain things. We are to pick up people's garbage, we are to protect our communities with our police and our Nation with our armed forces. We ought to come to our citizens' relief at the time of a disaster.    Over the past weeks, my staff has been collecting stories from constituents who were affected by superstorm Sandy. I represent Staten Island and the southern portion of Brooklyn, and these people are still struggling to recover from the disaster, in part because of the difficulties they have navigating through the complex recovery programs.    We will be sharing these stories with your office, and I hope that together we can work to ensure that similar situations do not occur if and when the next disaster we face comes about.    I would like to tell you about a woman, Carolyn Lauer. She is 72 years old, a constitute of mine, who, like so many others, had invested her life savings in her home and had just managed to pay off her mortgage months before superstorm Sandy struck our community. As a result of Sandy, her home was destroyed.    Following instructions from FEMA she, immediately after the storm, took out an SBA for $126,000 to pay for the repairs of her home. Now she was grateful for the loan, but shortly afterwards, after she took out that new mortgage grants became available in the type that would repair her home. The fact, though, is she was ineligible because she took out the SBA loan.    She is now 72 years old and burdened with a new mortgage, but was never informed that by taking out the SBA loan she would not be available for the future grants from the Federal Government.    Administrator, I just don't know whose responsibility it is, and I am not saying it was yours or your agency's. But whose responsibility do you believe it should be to inform people that if--as my colleague from South Carolina said--people took out an SBA loan they then would be ineligible for future grants? When their neighbors, who did not take out SBA loans, were eligible for these grants?</t>
@@ -850,11 +823,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -874,13 +845,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -902,11 +871,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -926,13 +893,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -954,11 +919,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -978,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1006,11 +967,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1030,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1058,11 +1015,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1082,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1110,11 +1063,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1134,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1162,11 +1111,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1186,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1214,11 +1159,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1238,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1266,11 +1207,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1290,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1318,11 +1255,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1342,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1370,11 +1303,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1394,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1422,11 +1351,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1446,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1472,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1498,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1524,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1550,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1578,11 +1495,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1602,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1630,11 +1543,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1654,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1682,11 +1591,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1706,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>56</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1732,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1758,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1784,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1810,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>56</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1838,11 +1735,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1862,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>56</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1890,11 +1783,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1914,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1940,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1966,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1992,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2018,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2044,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2070,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2098,11 +1975,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2122,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2148,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2174,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
-      </c>
-      <c r="G53" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2200,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2226,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2252,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2278,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
-      </c>
-      <c r="G57" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2306,11 +2167,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2330,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2358,11 +2215,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2382,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2410,11 +2263,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2434,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2462,11 +2311,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2486,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2514,11 +2359,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2538,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2566,11 +2407,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2590,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2618,11 +2455,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2642,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2670,11 +2503,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2694,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2722,11 +2551,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2746,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2774,11 +2599,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2798,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2826,11 +2647,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2850,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2878,11 +2695,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2902,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2928,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2954,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>52</v>
-      </c>
-      <c r="G83" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2980,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3006,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3032,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3058,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3084,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3110,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
-      </c>
-      <c r="G89" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3136,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3162,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3188,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3214,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3240,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3266,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3292,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3318,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3344,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3370,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3396,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3424,11 +3199,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3448,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>65</v>
-      </c>
-      <c r="G102" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3474,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3500,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>65</v>
-      </c>
-      <c r="G104" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3526,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3552,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>65</v>
-      </c>
-      <c r="G106" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3578,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3604,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>65</v>
-      </c>
-      <c r="G108" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3632,11 +3391,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3656,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s">
-        <v>56</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3682,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3708,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>56</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3734,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3760,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s">
-        <v>56</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3786,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3812,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s">
-        <v>56</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3838,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3864,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s">
-        <v>56</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3890,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3916,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>65</v>
-      </c>
-      <c r="G120" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3944,11 +3679,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3968,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s">
-        <v>56</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3996,11 +3727,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99744.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99744.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. The Subcommittee on Emergency Preparedness, Response, and Communications will come to order. Welcome to the other hearing going on on Capitol Hill this morning. The subcommittee is meeting today to examine Federal response capabilities for major disasters. I will now recognize myself for an opening statement.    August 29 marked the 10th anniversary of Hurricane Katrina, the response to which was a failure at all levels of government. The storm took more than 1,800 lives, impacted millions of Gulf Coast residents, and cost an estimated $108 billion--the most costly disaster in U.S. history.    Ten years later, the Gulf Coast still bears the scars of this disaster. Since Katrina, much has changed in how we manage and respond to disasters. There have been major legislative reforms and improvements made to the emergency preparedness and response enterprise.    The Post-Katrina Emergency Management Reform Act, or PKEMRA, gave FEMA more authority to lean forward and be more proactive as threats emerged.    We have also seen an improvement in the way we collectively look at preparedness, through the development of the National Preparedness System and its associated National Preparedness Goal and Planning Frameworks, including the National response framework, assessment of core capabilities, and planning and exercising to identify and address gaps.    Finally, the way information moves--especially through the use of social media--has changed how we communicate and interact with each other and how we get news and critical information.    In emergencies, we use social media to relay information to first responders, communicate with loved ones, and request assistance. Response organizations, including FEMA and emergency managers Mr. Koon represents, use social media to quickly share public safety information and maintain direct communication with disaster survivors during and after an incident.    As a whole, these changes have resulted in more coordinated and effective responses to more than 1,200 declared disasters in the 10 years since Katrina. Three years ago next week, Hurricane Sandy made landfall on the Eastern Seaboard, including areas represented by several of my colleagues on this subcommittee.    The response to Sandy is in contrast to the failures of Hurricane Katrina. FEMA pre-deployed more than 900 personnel and established incident support bases and Federal staging areas to preposition commodities, generators and communications vehicles. These actions contributed to a more effect response.    Despite these improvements, the response to Hurricane Sandy wasn't without its challenges. For example, issues related to fuel distribution and power restoration impacted responses and recovery efforts.    At the request of this committee, the Government Accountability Office has been evaluating FEMA's response capabilities, particularly in light of authorities provided in PKEMRA. Some of this work is ongoing, but the GAO has issued reports on FEMA's workforce, potentially improper disaster assistance, coordination of emergency support function responsibilities of Federal agencies, and logistics to name a few.    I look forward to hearing from Mr. Currie about GAO's reviews and his suggestions for ways to further improve our Federal response posture.    This Nation faces innumerable threats, including natural disasters, terrorist attacks, emerging infectious diseases, and a porous border. These complex threats pose unique challenges. Administrator Fugate, I look forward to hearing how you are working to continue to improve FEMA so it is a nimble organization, prepared to respond along with Federal, State, local, private, and non-profit partners to the evolving challenges we face.    I also want to commend you for FEMA's recent work responding to the devastating floods in the Carolinas. Our thoughts are with all those who have been impacted.    With that, I welcome our distinguished witnesses here today. I look forward to your testimony, and our discussions on ways we can work together to continue to improve our response capabilities.    The Chair now recognizes the gentleman from Mississippi, Mr. Thompson, for any opening statement he may have.</t>
   </si>
   <si>
     <t>400402</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Bennie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you very much. Good morning, Madam Chairman. I would like to thank you for holding this hearing to assess Federal preparedness, response, mitigation, and recovery capabilities that have evolved since Hurricane Katrina.    I am pleased that all of the witnesses are able to join us today, particularly Administrator Fugate. Good seeing you again. Yesterday, Secretary Johnson, however, appeared before the full committee for the first time this Congress, and today marks Administrator Fugate's also first appearance.    Although I am troubled that the committee has not had the opportunity to engage agency principles until almost halfway through the Congress, I am pleased that we are beginning to do so and look forward to additional hearings next year.    I would also like to welcome the assistant Democratic leader, James Clyburn, from South Carolina, to the Committee on Homeland Security and ask unanimous consent that he be permitted to participate in today's hearing.</t>
   </si>
   <si>
@@ -73,18 +88,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Fugate</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fugate. Well, thank you, Chairman and Members. Congressman Thompson, we go way back when I first started in     As we look back at Katrina, there are lot of questions: Well, why did it go wrong, who was at fault? It is easy to point to an individual or to a system and say this failed. I think you have to get to why we failed. It is an inherent danger we face in dealing with disaster preparedness.    I am seeing it play out even today. That is, we prepare for what we are capable of, and we hope it is never any worse. It is interesting that even after Sandy, where we were barely able to mobilize the resources fast enough to get to the disaster, we are continuing to look at how we reduce our footprint, how do we reduce our overhead, how do we reduce our budget.    I caution people in going, look, this is not a retail delivery system. Disasters don't occur with a schedule, where they are planned or where you know they are going to happen.    There is a certain inherent risk to wanting precision at the expense of being fast. Much of what you are going to find where you find errors at FEMA is not because we are not trying to be good stewards of the taxpayers' dollars. It is that we understand that speed is critical in stabilizing a disaster.    It will not be precise, it is rarely going to be cost-effective as it would be on a day-to-day basis, and it is going to have errors. Now, that is not an excuse, that is just a reality. So we always balance with precision is great, but at what expense to getting to the survivors.    We have driven down our error rate on individual assistance tremendously, but it is still high for the program; more than we want to accept.    But I also know that the more we get that lower, it will mean--and we will see this in South Carolina, where people who don't have a driver's license, who may not know where their Social Security number is, and are applying for assistance and are eligible for that assistance--the system is going to not be able to be as responsive. We are going to have to basically then run that in a less efficient manner to try to help those people.    We run into issues where families don't have deeds because their property got passed down in the family and nobody went to the courthouse and then we can't prove ownership of the home. We use those tools to avoid fraud but, at the same time, we have to balance that against the world we are in. So our challenge is, is when we build for disaster we have to build for what can happen. If we make a decision we are going to build for what we can afford, then the expectation that it scales up doesn't work.    We know that our systems have to be robust on the large end and they have to be built around the people we serve, and the survivors. That environment has all kinds of inherent risk, where you try to put the controls in. But I also caution, the more accuracy, the more precision we try to get, the slower the response will become and the more likely that eligible people may not get the assistance they need in the time frames they need.    The other part of this is that we have learned is, we have to plan for the communities we live in, not what fits our plan. One of the great tragedies we saw that occurred during Katrina was, for many communities that were not basically well-represented, disadvantaged--low-income areas that probably many people didn't go to very often--weren't in the plan.    The reason was, we kept putting them in the annexes. We would look at people with disabilities and go, ``Well, you are hard to do so we are going to put an annex in our plan for you.''    ``You have pets. Well, that is going to be a problem at the shelter, so we are going to write annex on pets.'' ``You got frail elderly. Well, they are not easy to take care of so we are going to write an annex for them.''    When I asked the question, when I got to FEMA--is, well, why are putting all these hard-to-do in annexes? Why did we write a plan for easy instead of the communities we live in? The answer was, we had provided as guidance how to plan for, essentially, middle-class people with insurance, with a high school education or better, who were English-proficient, who had a car and generally had resources to take care of themselves.    We didn't address the most vulnerable part of our community. So the other part of our work is to plan for what can happen, not what we are capable of doing. But the other piece of that is, you plan for the communities you live in, you don't make the community fit your plan.    If you find yourself putting groups into an annex you fundamentally didn't get the whole picture of what your job is to do. That means you have to focus not on the easy-to-do, but on what the community requires.    So with that, Madam Chair, I look forward to questions.    We are an imperfect organization dealing with the inherent uncertainties of disaster response, but I can tell you on behalf of the FEMA staff nobody in this organization is shirking from their duties to do the best they can when the bell rings and the country needs us.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Administrator Fugate.    The Chair now recognizes Mr. Koon for 5 minutes.</t>
   </si>
   <si>
+    <t>Koon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Koon. Thank you, Chairman McSally, Ranking Member Thompson, and Members of the subcommittee for holding this important hearing today. As director of the Florida Division of Emergency Management and president of the National Emergency Management Association I am pleased to be here to discuss preparedness and response capabilities on a National level.    As you have heard Administrator Fugate say, emergency management is a whole community endeavor involving all levels of government, the private sector, voluntary organizations, and individual citizens. While emergency preparedness and response capabilities are critical on the Federal level, it is important to emphasize that they are only part of the capabilities Nation-wide.    Today, I will focus on leveraging the preparedness and response capabilities that we have in our States and localities, as well as addressing opportunities for continued improvement.    One of the greatest tools this Nation has is the Emergency Management Assistance Compact. Ratified by Congress in 1996, EMAC allows States to share resources amongst themselves during disasters. It has been an overwhelming success and its use continues to grow.    Most recently, 8 States sent 849 personnel to South Carolina to assist with their flood-fighting efforts. These deployments reduce the need for Federal resources and also benefits the home States.    To quote Billy Estep, the Nassau County Emergency Managing Director who deployed to South Carolina as part of the Northeast Florida Incident Management team, ``No matter how hard we try or how sophisticated our process we cannot recreate this type of learning in an exercise environment. I feel these opportunities are vital to our preparedness efforts both locally and state-wide.''    The capability that the States and locals build to respond to disasters both at home and through EMAC is often funded by the Emergency Management Performance Grant. EMPG is the only source of Federal funding directed to State and local governments for planning, training, exercises, and key professional expertise for all-hazards emergency preparedness.    EMPG is also used for public awareness and outreach campaigns. Each year, Emergency Management agencies conduct thousands of these engagements, reaching over 135 million residents last year alone. Recipients of this grant continue demonstrating a strong commitment for every dollar of Federal funds invested; at least that much is matched by the recipient.    In the absence of these funds, State and local governments would struggle to maintain the personnel or capabilities necessary to build and sustain an effective emergency management system.    Opportunities for improvement continue to exist. One such area is the National Flood Insurance program. Much attention has been paid to the NFIP over the last several years, and rightly so. Although reforms have been implemented, Americans remain under-insured against the threat posed by flooding, our most prevalent hazard, and the trend line for the number of flood policies Nation-wide continues to decline.    Too often, we watch our communities flood, only to hear from residents that they did not have the appropriate coverage. In the absence of insurance, they are reliant upon charitable organizations and Governmental aid that its not designed to make them whole. This delays the recovery of the community and threatens it very existence.    We must redouble our efforts to design a system that helps people evaluate and plan for their individual risk, while simultaneously reducing our collective risk.    Concurrent with improving our insurance coverage is the need for improved mitigation. To truly ensure that we are prepared, we must incentivize and facilitate more resilient communities. This point was made in the GAO's recent report that reviewed Federal efforts during Hurricane Sandy recovery. State and local officials reported that they were able to effectively leverage Federal programs to enhance disaster resilience, but also experienced challenges that could result in missed opportunities.    Challenges in linking recovery and mitigation projects, navigating multiple funding streams, and differing regulations among the programs impact the desire and ability of local communities and homeowners to take advantage of the opportunities afforded by these programs.    The report indicated that the current program works, but is constrained by its structure and implementation. Just as FEMA has designed its response program to be survivor-centric, it should also work to develop mitigation programs that are community-centric and administered in a way to make mitigation a clear and viable solution for the future.    We have made tremendous strides in the Nation's ability to deal with disasters, and are on track for continued improvement.    By investing in and leveraging the capabilities that exist with the individual at the State and local level, the private sector, and through our partnerships with organizations like the American Red Cross and the Salvation Army, we can most effectively determine the gaps that remain and should be filled by FEMA and its Federal partners.    We appreciate the continued support of this subcommittee to the emergency management community, as we work together in forming new policies and procedures aimed at making these disasters less impactful on our communities and constituents.    I thank you for the opportunity to testify today, and welcome any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Koon.    The Chair now recognizes Mr. Currie for 5 minutes.</t>
   </si>
   <si>
+    <t>Currie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Currie. Thank you, Chairman McSally, Ranking Member Thompson, other Members of the committee. We really appreciate the opportunity to be able to be here and testify.    Before I get into some of our specific work that we have done at GAO in this area, I would like to make a couple broader points.    FEMA is a much different organization than it was in 2005, and has made a lot of progress. I think the proactive preplanning and response to Sandy were evidence of that, and that the Federal Government at large was much better prepared for another catastrophic storm.    However, FEMA and other agencies operate in a different disaster and fiscal environment today. Extreme weather events are now the norm, and Federal disaster spending has exploded. It is not just traditional disaster relief funds from FEMA. Now, many other Federal agencies are contributing more to disaster relief either directly or indirectly.    Over the last decade, we at GAO have reported on progress and challenges, as you mentioned, in numerous areas, including efforts to implement over 300 provisions in the Post-Katrina Act.    Today, I would like to focus on some of our work in three of those areas. The first is National preparedness, the second is response and recovery, and the third is what I would categorize as FEMA management issues.    So let me talk a little bit about preparedness or, just more simply, how capable we are to respond to a disaster. Some of the biggest changes to FEMA in the Post-Katrina Act were in this area. For example, there has been much progress in establishing the coordinating structures, or the emergency support functions, across the Federal Government.    Also, FEMA and other agencies have conducted numerous exercises to test their readiness and identify capability gaps. Challenges still exist in this area, though. Specifically, FEMA doesn't necessarily control other Federal departments' preparedness efforts and resources.    For example, FEMA manages National-level exercises, but we found that other agencies don't always report back on actions they took to close the gaps that are identified during those exercises. So this impacts FEMA's ability to assess overall preparedness.    The second area I would like to talk about is response and recovery. Again, there has been much progress since the problems we remember after Katrina. But more work is still needed.    For example, we have recently evaluated FEMA disaster payments to individuals, which was discussed in the opening statements, after Sandy and compared them to Katrina. Due to better controls that FEMA implemented after Katrina, we found about 2.7 percent of payments at risk of being improper or potentially fraudulent--it doesn't mean that those were all fraudulent--compared to upwards of 22 percent after Katrina.    So this is unbelievably great progress, given the challenge that Mr. Fugate mentioned of getting money out quickly but making sure it is to the right people.    However, there are still improvements and some challenges that exist, such as ability to validate Social Security numbers with the Social Security Administration, and we made some recommendations to address these issues.    I would also like to emphasize our work on mitigation and resilience-building during recoveries. Given the increase in Federal costs and extreme weather, mitigation is one of the few solutions to buy down risk and decrease future cost. Mr. Koon talked about this in his opening. We have reported recently that resilience-building efforts were a much higher priority in Sandy recovery, and States were able to use a number of the Federal programs to mitigate against future disasters. However, more work is needed to break down the barriers that still exist in mitigation.    For example, States and locals had difficulty navigating multiple fragmented Federal programs, all with rules, regulations, and time frames. These weren't all FEMA programs; these are programs across the menu of Federal agencies.    We also found that the Nation lacks a comprehensive strategic approach to prioritizing our investments in resilience. We made recommendations to begin addressing these issues, but determining how to better invest our resilience dollars won't be easy.    The last area I wanted to discuss is FEMA management. For example, FEMA has taken a number of steps to better manage and control the rising administrative costs. Now, these are the costs of actually providing and managing disaster assistance.    Specifically, in response to our recommendation they developed specific goals, and a plan to better manage and try to reduce these costs.    Also, over the last decade we and others have found continued challenges in FEMA's ability to complete and integrate important strategic workforce planning efforts. We just reported, back in July, that the agency had not completed its plan to identify workforce gaps and lacked data on the cost and performance of certain workforce components. That has been a pretty consistent message across some of our reports over the last 5 to 7 years.    So this completes my prepared remarks. I look forward to the discussion, and any questions.</t>
   </si>
   <si>
@@ -148,6 +172,12 @@
     <t>412670</t>
   </si>
   <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Madam Chairwoman. I do not have specifically a question today, but I do have a comment that I would like to submit in the record for Administrator Fugate. I wanted to take a moment today and thank FEMA and the men and women working to respond in our specific times of need in North Carolina.    In fact, our Governor, Pat McCrory of North Carolina, has only the best to say about the work FEMA has done in North Carolina following Hurricane Joaquin, and we cannot thank you all enough.    Last, I would like to finish today by recognizing Michael Sprayberry on his appointment to the FEMA National Advisory Council. Mr. Sprayberry is the emergency management director for the North Carolina Department of Public Safety, and I feel the council made an excellent decision to bring him on board. Again, thank you, Administrator, for your work along with the rest of the Members.    I yield back, thank you.</t>
   </si>
   <si>
@@ -157,12 +187,21 @@
     <t>412644</t>
   </si>
   <si>
+    <t>Watson Coleman</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you, Madam Chairman. I would like very much to yield, at this moment, to Mr. Clyburn.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Mr. Clyburn.</t>
   </si>
   <si>
+    <t>Clyburn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clyburn. Thank you very much. I thank the gentlelady for yielding. Madam Chair, Ranking Member, I don't know if many people realize this or not, but a little over 10 years ago, when we experienced Katrina and Rita, I was designated by the Speaker of the House to be the Congressional coordinator for our response to Katrina and Rita.    So I spent a lot of time in Louisiana and Mississippi, and I learned a lot, which was added to my own personal experiences with Hugo 26 years ago.    Now, what I have found--in keeping with the question raised by Ranking Member Thompson--is that there seems to be a natural default to State planning. I want to tell you what drives my thought on this.    When I accompanied Secretary Johnson down to South Carolina to listen to the State plans, here is what stuck with me from that hearing, this quote: ``We may run out of money before we reach all of the hard-hit areas, but we know where they are.''    Now, that bothered me tremendously and I still wake up every morning thinking about that statement. Because there is no one-stop facility. I think, Mr. Fugate, you mentioned that FEMA's limitations--you may not have mentioned this--if you get turned down by FEMA, then you got to go to the SBA. Then you got to get turned down by SBA for the loan in order to go back to FEMA in order to get the assistance. Now, this is not a good model for a lot of rural communities, a lot of people who are hit the hardest. Especially when they don't have transportation.    Then we set up these recovery centers, and they are not one-stop recovery centers. I could see it. If you go to this table to talk to FEMA, then walk across the gymnasium or auditorium to another table to talk to SBA. In this modern day, with all the computers and stuff we got, I don't see why this cannot be done, it cannot be a one-stop place for these people, because they give up on the process.    So I am asking, how are these agreements agreed upon; these agreements that you seem to default to, these State agreements, State-by-State agreements? Do we study them or do we evaluate them, or do we just accept what they send to us and then respond to it?</t>
   </si>
   <si>
@@ -188,6 +227,12 @@
   </si>
   <si>
     <t>412672</t>
+  </si>
+  <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Daniel</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Madam Chair. I would like to thank my colleague from South Carolina. Because I was elected to office 13 months after superstorm Sandy and I had to create a one-stop shopping for the residents of Staten Island and South Brooklyn that were affected by that storm. So I agree with you, sir.    I was always a believer, gentlemen, that Government should have less interference in people's lives. But we are to do certain things. We are to pick up people's garbage, we are to protect our communities with our police and our Nation with our armed forces. We ought to come to our citizens' relief at the time of a disaster.    Over the past weeks, my staff has been collecting stories from constituents who were affected by superstorm Sandy. I represent Staten Island and the southern portion of Brooklyn, and these people are still struggling to recover from the disaster, in part because of the difficulties they have navigating through the complex recovery programs.    We will be sharing these stories with your office, and I hope that together we can work to ensure that similar situations do not occur if and when the next disaster we face comes about.    I would like to tell you about a woman, Carolyn Lauer. She is 72 years old, a constitute of mine, who, like so many others, had invested her life savings in her home and had just managed to pay off her mortgage months before superstorm Sandy struck our community. As a result of Sandy, her home was destroyed.    Following instructions from FEMA she, immediately after the storm, took out an SBA for $126,000 to pay for the repairs of her home. Now she was grateful for the loan, but shortly afterwards, after she took out that new mortgage grants became available in the type that would repair her home. The fact, though, is she was ineligible because she took out the SBA loan.    She is now 72 years old and burdened with a new mortgage, but was never informed that by taking out the SBA loan she would not be available for the future grants from the Federal Government.    Administrator, I just don't know whose responsibility it is, and I am not saying it was yours or your agency's. But whose responsibility do you believe it should be to inform people that if--as my colleague from South Carolina said--people took out an SBA loan they then would be ineligible for future grants? When their neighbors, who did not take out SBA loans, were eligible for these grants?</t>
@@ -773,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,7 +826,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,2933 +848,3432 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G45" t="s">
+        <v>71</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G53" t="s">
+        <v>57</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G55" t="s">
+        <v>57</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>57</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
       <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G83" t="s">
+        <v>57</v>
+      </c>
       <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
       <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G89" t="s">
+        <v>57</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
       <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
       <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
       <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
       <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>57</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G102" t="s">
+        <v>71</v>
+      </c>
       <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>57</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G104" t="s">
+        <v>71</v>
+      </c>
       <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G105" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>57</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G106" t="s">
+        <v>71</v>
+      </c>
       <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>57</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G108" t="s">
+        <v>71</v>
+      </c>
       <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>61</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>61</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>61</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>61</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>61</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>57</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G120" t="s">
+        <v>71</v>
+      </c>
       <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s">
+        <v>61</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>136</v>
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99744.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99744.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412611</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>McSally</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400402</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Thompson</t>
   </si>
   <si>
@@ -227,6 +236,9 @@
   </si>
   <si>
     <t>412672</t>
+  </si>
+  <si>
+    <t>Chair</t>
   </si>
   <si>
     <t>Donovan</t>
@@ -818,7 +830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,7 +838,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,3429 +863,3684 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>61</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G53" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G55" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G57" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>24</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>24</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>24</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>24</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>27</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>24</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>24</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G83" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s">
-        <v>24</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G89" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>24</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>24</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" t="s">
-        <v>24</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>30</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>27</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>30</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G102" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H102" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I102" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G104" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H104" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G106" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H106" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s">
-        <v>24</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G108" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H108" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>61</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>64</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>24</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>27</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s">
-        <v>61</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>64</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s">
-        <v>24</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s">
-        <v>61</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>64</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s">
-        <v>24</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" t="s">
-        <v>61</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>64</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s">
-        <v>24</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>27</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s">
-        <v>61</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>64</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s">
-        <v>24</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>27</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G120" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H120" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I120" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" t="s">
-        <v>61</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>64</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>151</v>
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
